--- a/formidable-client/assets/opendatakit.collect2/form-files/example/example.xlsx
+++ b/formidable-client/assets/opendatakit.collect2/form-files/example/example.xlsx
@@ -3,11 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="calculates" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="model" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="choices" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="settings" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet sheetId="1" name="survey" state="visible" r:id="rId3"/>
+    <sheet sheetId="2" name="calculates" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="choices" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="settings" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
   <si>
     <t>type</t>
   </si>
@@ -26,9 +25,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>assign</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -56,7 +52,7 @@
     <t>inputAttributes.max</t>
   </si>
   <si>
-    <t>inputAttributes.data-type</t>
+    <t>required</t>
   </si>
   <si>
     <t>select_multiple examples</t>
@@ -104,6 +100,12 @@
     <t>Scan a barcode</t>
   </si>
   <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>Capture your location</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
@@ -119,10 +121,10 @@
     <t>label intents_end</t>
   </si>
   <si>
-    <t>goto dynamic_label_end</t>
-  </si>
-  <si>
-    <t>not(selected(data('examples'), 'dynamic_label'))</t>
+    <t>goto label_features_end</t>
+  </si>
+  <si>
+    <t>not(selected(data('examples'), 'label_features'))</t>
   </si>
   <si>
     <t>text</t>
@@ -137,10 +139,54 @@
     <t>note</t>
   </si>
   <si>
-    <t>Hello {{name.value}}</t>
-  </si>
-  <si>
-    <t>label dynamic_label_end</t>
+    <t>{{#if name}}
+Hello {{name}}!
+{{else}}
+Name not entered.
+{{/if}}
+This label is a handlesbars template.</t>
+  </si>
+  <si>
+    <t>Handlebars templates allow labels to change depending on the values previously entered.</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Labels&lt;/u&gt; &lt;i&gt;can&lt;/i&gt; contain &lt;span style="color:red;"&gt;HTML&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>So can &lt;b&gt;hints&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Labels can contain &amp;lt;img&amp;gt; and &amp;lt;audio&amp;gt; HTML tags, but it is often easier to add media via the image and audio columns.</t>
+  </si>
+  <si>
+    <t>audio/carrioncrow.mp3</t>
+  </si>
+  <si>
+    <t>img/dolphin.png</t>
+  </si>
+  <si>
+    <t>label label_features_end</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'dynamic_defaults')</t>
+  </si>
+  <si>
+    <t>avg_coffee</t>
+  </si>
+  <si>
+    <t>On average, how many cups of coffee do you drink in a day?</t>
+  </si>
+  <si>
+    <t>coffee_today</t>
+  </si>
+  <si>
+    <t>How many cups of coffee did you drink today?</t>
+  </si>
+  <si>
+    <t>data('avg_coffee')</t>
   </si>
   <si>
     <t>goto datetime_end</t>
@@ -179,9 +225,6 @@
     <t>label datetime_end</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>selected(data('examples'), 'geopoint')</t>
   </si>
   <si>
@@ -197,7 +240,7 @@
     <t>selected(data('examples'), 'screen_group')</t>
   </si>
   <si>
-    <t>select continents</t>
+    <t>select_multiple continents</t>
   </si>
   <si>
     <t>visited_continents</t>
@@ -245,36 +288,9 @@
     <t>Take a picture:</t>
   </si>
   <si>
-    <t>This prompt shows how to embed media in labels.</t>
-  </si>
-  <si>
-    <t>audio/carrioncrow.mp3</t>
-  </si>
-  <si>
-    <t>img/dolphin.png</t>
-  </si>
-  <si>
     <t>label media_end</t>
   </si>
   <si>
-    <t>with_next</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'assignment')</t>
-  </si>
-  <si>
-    <t>Assigning a value of 10 to x.</t>
-  </si>
-  <si>
-    <t>data('x') === 10</t>
-  </si>
-  <si>
-    <t>x = {{x.value}}</t>
-  </si>
-  <si>
     <t>selected(data('examples'), 'custom_template')</t>
   </si>
   <si>
@@ -287,9 +303,6 @@
     <t>test.handlebars</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
@@ -311,18 +324,6 @@
     <t>selected(data('visited_continents'), 'NorthAmerica')</t>
   </si>
   <si>
-    <t>schema.type</t>
-  </si>
-  <si>
-    <t>pulseox</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>breathcount</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -368,10 +369,19 @@
     <t>intents</t>
   </si>
   <si>
-    <t>dynamic_label</t>
-  </si>
-  <si>
-    <t>dynamic label</t>
+    <t>intent launching</t>
+  </si>
+  <si>
+    <t>label_features</t>
+  </si>
+  <si>
+    <t>label features</t>
+  </si>
+  <si>
+    <t>dynamic_defaults</t>
+  </si>
+  <si>
+    <t>computed default values</t>
   </si>
   <si>
     <t>media</t>
@@ -389,25 +399,22 @@
     <t>custom template</t>
   </si>
   <si>
-    <t>assignment</t>
-  </si>
-  <si>
     <t>setting</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>formId</t>
+    <t>form_id</t>
   </si>
   <si>
     <t>exampleForm</t>
   </si>
   <si>
-    <t>formVersion</t>
-  </si>
-  <si>
-    <t>formTitle</t>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>form_title</t>
   </si>
   <si>
     <t>Example Form</t>
@@ -417,7 +424,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -493,18 +509,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+  <cellXfs count="6">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1"/>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="3" borderId="0" applyFill="1"/>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="4" borderId="0" applyFill="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf fillId="3" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3" applyFill="1"/>
+    <xf fillId="4" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -517,21 +536,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="11.57" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.57" defaultRowHeight="12.75"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="27.14"/>
-    <col max="2" min="2" customWidth="1" width="45.86"/>
-    <col max="3" min="3" customWidth="1" width="24.86"/>
-    <col max="4" min="4" customWidth="1" width="19.14"/>
-    <col max="5" min="5" customWidth="1" width="41.86"/>
-    <col max="6" min="6" customWidth="1" width="40.0"/>
-    <col max="8" min="8" customWidth="1" width="20.57"/>
-    <col max="9" min="9" customWidth="1" width="13.0"/>
-    <col max="10" min="10" customWidth="1" width="15.86"/>
-    <col max="11" min="11" customWidth="1" width="18.29"/>
-    <col max="12" min="12" customWidth="1" width="18.43"/>
-    <col max="13" min="13" customWidth="1" width="19.0"/>
-    <col max="14" min="14" customWidth="1" width="27.0"/>
+    <col min="1" customWidth="1" max="1" width="27.14"/>
+    <col min="2" customWidth="1" max="2" width="40.86"/>
+    <col min="3" customWidth="1" max="3" width="24.86"/>
+    <col min="4" customWidth="1" max="4" width="41.86"/>
+    <col min="5" customWidth="1" max="5" width="40.0"/>
+    <col min="6" customWidth="1" max="6" width="14.29"/>
+    <col min="7" customWidth="1" max="7" width="20.57"/>
+    <col min="8" customWidth="1" max="8" width="13.0"/>
+    <col min="9" customWidth="1" max="9" width="15.86"/>
+    <col min="10" customWidth="1" max="10" width="18.29"/>
+    <col min="11" customWidth="1" max="11" width="18.43"/>
+    <col min="12" customWidth="1" max="12" width="19.0"/>
+    <col min="13" customWidth="1" max="13" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,84 +593,81 @@
       <c t="s" s="1" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="N1">
+    </row>
+    <row customHeight="1" r="2" ht="18.0">
+      <c t="s" s="1" r="A2">
         <v>13</v>
       </c>
-    </row>
-    <row ht="18.0" r="2" customHeight="1">
-      <c t="s" s="1" r="A2">
+      <c t="s" r="C2">
         <v>14</v>
       </c>
-      <c t="s" r="C2">
+      <c t="s" r="D2">
         <v>15</v>
-      </c>
-      <c t="s" r="E2">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="B3">
         <v>17</v>
-      </c>
-      <c t="s" s="1" r="B3">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
+        <v>18</v>
+      </c>
+      <c t="s" r="C4">
         <v>19</v>
       </c>
-      <c t="s" r="C4">
+      <c t="s" r="D4">
         <v>20</v>
       </c>
       <c t="s" r="E4">
         <v>21</v>
       </c>
-      <c t="s" r="F4">
-        <v>22</v>
-      </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="4" r="A6">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="3" r="A6">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="B7">
         <v>25</v>
-      </c>
-      <c t="s" s="1" r="B7">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
+        <v>26</v>
+      </c>
+      <c t="s" r="C8">
+        <v>26</v>
+      </c>
+      <c t="s" r="D8">
         <v>27</v>
-      </c>
-      <c t="s" r="C8">
-        <v>27</v>
-      </c>
-      <c t="s" r="E8">
-        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c t="s" r="C9">
+        <v>28</v>
+      </c>
+      <c t="s" r="D9">
         <v>29</v>
-      </c>
-      <c t="s" r="E9">
-        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -659,307 +675,332 @@
         <v>7</v>
       </c>
       <c t="s" r="C10">
+        <v>30</v>
+      </c>
+      <c t="s" r="D10">
         <v>31</v>
       </c>
-      <c t="s" r="E10">
+    </row>
+    <row r="11">
+      <c t="s" r="A11">
+        <v>6</v>
+      </c>
+      <c t="s" r="C11">
         <v>32</v>
       </c>
-    </row>
-    <row r="11">
-      <c t="s" s="3" r="A11">
+      <c t="s" r="D11">
         <v>33</v>
       </c>
     </row>
     <row r="12">
-      <c t="s" s="2" r="A12">
+      <c t="s" s="4" r="A12">
         <v>34</v>
       </c>
-      <c t="s" s="1" r="B12">
+    </row>
+    <row r="13">
+      <c t="s" s="2" r="A13">
         <v>35</v>
       </c>
-    </row>
-    <row r="13">
-      <c t="s" s="1" r="A13">
+      <c t="s" s="1" r="B13">
         <v>36</v>
-      </c>
-      <c t="s" s="1" r="C13">
-        <v>2</v>
-      </c>
-      <c t="s" s="1" r="E13">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="F13">
-        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c t="s" s="1" r="A14">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="C14">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D14">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="E14">
         <v>39</v>
       </c>
-      <c t="s" s="1" r="E14">
+    </row>
+    <row r="15">
+      <c t="s" s="1" r="A15">
         <v>40</v>
       </c>
-    </row>
-    <row ht="18.0" r="15" customHeight="1">
-      <c t="s" s="3" r="A15">
+      <c t="s" s="1" r="D15">
         <v>41</v>
       </c>
-    </row>
-    <row ht="18.0" r="16" customHeight="1">
-      <c t="s" s="2" r="A16">
+      <c t="s" r="E15">
         <v>42</v>
       </c>
-      <c t="s" s="1" r="B16">
+    </row>
+    <row r="16">
+      <c t="s" s="1" r="A16">
+        <v>40</v>
+      </c>
+      <c t="s" r="D16">
         <v>43</v>
       </c>
-    </row>
-    <row ht="18.0" r="17" customHeight="1">
+      <c t="s" r="E16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
       <c t="s" s="1" r="A17">
-        <v>44</v>
-      </c>
-      <c t="s" r="C17">
+        <v>40</v>
+      </c>
+      <c t="s" s="3" r="D17">
         <v>45</v>
       </c>
-      <c t="s" s="1" r="E17">
+      <c t="s" s="1" r="G17">
         <v>46</v>
       </c>
-    </row>
-    <row ht="18.0" r="18" customHeight="1">
-      <c t="s" s="1" r="A18">
-        <v>39</v>
-      </c>
-      <c t="s" r="B18">
+      <c t="s" s="1" r="H17">
         <v>47</v>
       </c>
-      <c t="s" s="1" r="E18">
+    </row>
+    <row customHeight="1" r="18" ht="18.0">
+      <c t="s" s="4" r="A18">
         <v>48</v>
       </c>
     </row>
-    <row ht="18.0" r="19" customHeight="1">
+    <row r="19">
       <c t="s" s="1" r="A19">
         <v>49</v>
       </c>
+      <c t="s" r="B19">
+        <v>50</v>
+      </c>
       <c t="s" r="C19">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="E19">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c t="s" r="D19">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c t="s" s="1" r="A20">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="C20">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="E20">
-        <v>52</v>
-      </c>
-    </row>
-    <row ht="18.0" r="21" customHeight="1">
-      <c t="s" s="3" r="A21">
+        <v>49</v>
+      </c>
+      <c t="s" r="B20">
+        <v>50</v>
+      </c>
+      <c t="s" r="C20">
         <v>53</v>
       </c>
-      <c s="1" r="C21"/>
-    </row>
-    <row ht="18.0" r="22" customHeight="1">
+      <c t="s" r="D20">
+        <v>54</v>
+      </c>
+      <c t="s" r="F20">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" r="21" ht="18.0">
+      <c t="s" s="2" r="A21">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="B21">
+        <v>57</v>
+      </c>
+    </row>
+    <row customHeight="1" r="22" ht="18.0">
       <c t="s" s="1" r="A22">
-        <v>54</v>
-      </c>
-      <c t="s" r="B22">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="C22">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="E22">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>58</v>
+      </c>
+      <c t="s" r="C22">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="D22">
+        <v>60</v>
+      </c>
+    </row>
+    <row customHeight="1" r="23" ht="18.0">
       <c t="s" s="1" r="A23">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c t="s" r="B23">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="D23">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" r="24" ht="18.0">
       <c t="s" s="1" r="A24">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="C24">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="E24">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c t="s" r="C24">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="D24">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c t="s" s="1" r="A25">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="B25">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="E25">
         <v>65</v>
       </c>
-    </row>
-    <row r="26">
-      <c t="s" s="1" r="A26">
+      <c t="s" s="1" r="D25">
         <v>66</v>
       </c>
     </row>
-    <row r="27">
-      <c t="s" s="4" r="A27">
+    <row customHeight="1" r="26" ht="18.0">
+      <c t="s" s="4" r="A26">
         <v>67</v>
+      </c>
+      <c s="1" r="C26"/>
+    </row>
+    <row customHeight="1" r="27" ht="18.0">
+      <c t="s" s="1" r="A27">
+        <v>28</v>
       </c>
       <c t="s" r="B27">
         <v>68</v>
       </c>
+      <c t="s" s="1" r="C27">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="D27">
+        <v>70</v>
+      </c>
     </row>
     <row r="28">
       <c t="s" s="1" r="A28">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c t="s" r="B28">
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c t="s" s="1" r="A29">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="E29">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="D29">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c t="s" s="1" r="A30">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="B30">
+        <v>76</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="E30">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="D30">
+        <v>78</v>
+      </c>
+      <c t="b" r="M30">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c t="s" s="1" r="A31">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="C31">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="E31">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
-      <c t="s" s="1" r="A32">
-        <v>66</v>
+      <c t="s" s="5" r="A32">
+        <v>80</v>
+      </c>
+      <c t="s" r="B32">
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c t="s" s="1" r="A33">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="E33">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="H33">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="I33">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
-      <c t="s" s="3" r="A34">
-        <v>79</v>
-      </c>
-      <c s="1" r="E34"/>
+      <c t="s" s="1" r="A34">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="C34">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="D34">
+        <v>83</v>
+      </c>
     </row>
     <row r="35">
       <c t="s" s="1" r="A35">
-        <v>80</v>
-      </c>
-      <c t="s" r="C35">
-        <v>81</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c s="1" r="E35"/>
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="C35">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="D35">
+        <v>86</v>
+      </c>
     </row>
     <row r="36">
       <c t="s" s="1" r="A36">
-        <v>39</v>
-      </c>
-      <c t="s" r="B36">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="C36">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="D36">
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c t="s" s="1" r="A37">
-        <v>39</v>
-      </c>
-      <c t="s" r="B37">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
-      <c t="s" s="1" r="A38">
-        <v>36</v>
-      </c>
-      <c t="s" r="B38">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="C38">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="E38">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="J38">
+      <c t="s" s="4" r="A38">
         <v>89</v>
       </c>
+      <c s="1" r="D38"/>
     </row>
     <row r="39">
       <c t="s" s="1" r="A39">
+        <v>37</v>
+      </c>
+      <c t="s" r="B39">
         <v>90</v>
       </c>
       <c t="s" s="1" r="C39">
         <v>91</v>
       </c>
-      <c t="s" s="1" r="E39">
+      <c t="s" s="1" r="D39">
         <v>92</v>
       </c>
-      <c t="s" r="F39">
+      <c t="s" s="1" r="I39">
         <v>93</v>
       </c>
-      <c r="G39">
+    </row>
+    <row r="40">
+      <c t="s" s="1" r="A40">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="C40">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="D40">
+        <v>95</v>
+      </c>
+      <c t="s" r="E40">
+        <v>96</v>
+      </c>
+      <c r="F40">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="K39">
-        <v>94</v>
-      </c>
-      <c s="1" r="L39">
+      <c t="s" s="1" r="J40">
+        <v>97</v>
+      </c>
+      <c s="1" r="K40">
         <v>1</v>
       </c>
-      <c s="1" r="M39">
+      <c s="1" r="L40">
         <v>10</v>
       </c>
     </row>
@@ -972,10 +1013,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="9.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="9.14" defaultRowHeight="12.75"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="21.43"/>
-    <col max="2" min="2" customWidth="1" width="49.43"/>
+    <col min="1" customWidth="1" max="1" width="21.43"/>
+    <col min="2" customWidth="1" max="2" width="49.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -983,15 +1024,15 @@
         <v>2</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1003,30 +1044,219 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.57" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" customWidth="1" max="2" width="18.14"/>
+    <col min="3" customWidth="1" max="3" width="20.86"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c t="s" r="A1">
+      <c t="s" s="1" r="A1">
+        <v>101</v>
+      </c>
+      <c t="s" s="1" r="B1">
         <v>2</v>
       </c>
-      <c t="s" r="B1">
-        <v>98</v>
+      <c t="s" s="1" r="C1">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" r="A2">
-        <v>99</v>
-      </c>
-      <c t="s" r="B2">
-        <v>100</v>
+      <c t="s" s="1" r="A2">
+        <v>102</v>
+      </c>
+      <c t="s" s="1" r="B2">
+        <v>103</v>
+      </c>
+      <c t="s" s="1" r="C2">
+        <v>103</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" r="A3">
-        <v>101</v>
-      </c>
-      <c t="s" r="B3">
-        <v>90</v>
+      <c t="s" s="1" r="A3">
+        <v>102</v>
+      </c>
+      <c t="s" s="1" r="B3">
+        <v>104</v>
+      </c>
+      <c t="s" s="1" r="C3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="1" r="A4">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B4">
+        <v>106</v>
+      </c>
+      <c t="s" s="1" r="C4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B5">
+        <v>108</v>
+      </c>
+      <c t="s" s="1" r="C5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="1" r="A6">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B6">
+        <v>110</v>
+      </c>
+      <c t="s" s="1" r="C6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="1" r="A7">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B7">
+        <v>111</v>
+      </c>
+      <c t="s" s="1" r="C7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="1" r="A8">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B8">
+        <v>112</v>
+      </c>
+      <c t="s" s="1" r="C8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="1" r="A9">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B9">
+        <v>113</v>
+      </c>
+      <c t="s" s="1" r="C9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="1" r="A10">
+        <v>105</v>
+      </c>
+      <c t="s" s="1" r="B10">
+        <v>114</v>
+      </c>
+      <c t="s" s="1" r="C10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" r="A12">
+        <v>14</v>
+      </c>
+      <c t="s" r="B12">
+        <v>19</v>
+      </c>
+      <c t="s" r="C12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" r="A13">
+        <v>14</v>
+      </c>
+      <c t="s" r="B13">
+        <v>115</v>
+      </c>
+      <c t="s" r="C13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" r="A14">
+        <v>14</v>
+      </c>
+      <c t="s" r="B14">
+        <v>117</v>
+      </c>
+      <c t="s" r="C14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" r="A15">
+        <v>14</v>
+      </c>
+      <c t="s" r="B15">
+        <v>119</v>
+      </c>
+      <c t="s" r="C15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" r="A16">
+        <v>14</v>
+      </c>
+      <c t="s" r="B16">
+        <v>65</v>
+      </c>
+      <c t="s" r="C16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" r="A17">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17">
+        <v>28</v>
+      </c>
+      <c t="s" r="C17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" r="A18">
+        <v>14</v>
+      </c>
+      <c t="s" r="B18">
+        <v>121</v>
+      </c>
+      <c t="s" r="C18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="s" r="A19">
+        <v>14</v>
+      </c>
+      <c t="s" r="B19">
+        <v>122</v>
+      </c>
+      <c t="s" r="C19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="s" r="A20">
+        <v>14</v>
+      </c>
+      <c t="s" r="B20">
+        <v>124</v>
+      </c>
+      <c t="s" r="C20">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1038,265 +1268,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="11.57" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.57" defaultRowHeight="12.75"/>
   <cols>
-    <col max="2" min="2" customWidth="1" width="18.14"/>
-    <col max="3" min="3" customWidth="1" width="15.86"/>
+    <col min="2" customWidth="1" max="2" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>2</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>104</v>
-      </c>
-      <c t="s" s="1" r="C2">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>103</v>
-      </c>
-      <c t="s" s="1" r="B3">
-        <v>105</v>
-      </c>
-      <c t="s" s="1" r="C3">
-        <v>105</v>
+        <v>130</v>
+      </c>
+      <c s="1" r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>107</v>
-      </c>
-      <c t="s" s="1" r="C4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>106</v>
-      </c>
-      <c t="s" s="1" r="B5">
-        <v>109</v>
-      </c>
-      <c t="s" s="1" r="C5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>106</v>
-      </c>
-      <c t="s" s="1" r="B6">
-        <v>111</v>
-      </c>
-      <c t="s" s="1" r="C6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="1" r="A7">
-        <v>106</v>
-      </c>
-      <c t="s" s="1" r="B7">
-        <v>112</v>
-      </c>
-      <c t="s" s="1" r="C7">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
-        <v>106</v>
-      </c>
-      <c t="s" s="1" r="B8">
-        <v>113</v>
-      </c>
-      <c t="s" s="1" r="C8">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="1" r="A9">
-        <v>106</v>
-      </c>
-      <c t="s" s="1" r="B9">
-        <v>114</v>
-      </c>
-      <c t="s" s="1" r="C9">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="1" r="A10">
-        <v>106</v>
-      </c>
-      <c t="s" s="1" r="B10">
-        <v>115</v>
-      </c>
-      <c t="s" s="1" r="C10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" r="A11">
-        <v>15</v>
-      </c>
-      <c t="s" r="B11">
-        <v>20</v>
-      </c>
-      <c t="s" r="C11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" r="A12">
-        <v>15</v>
-      </c>
-      <c t="s" r="B12">
-        <v>116</v>
-      </c>
-      <c t="s" r="C12">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" r="A13">
-        <v>15</v>
-      </c>
-      <c t="s" r="B13">
-        <v>117</v>
-      </c>
-      <c t="s" r="C13">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" r="A14">
-        <v>15</v>
-      </c>
-      <c t="s" r="B14">
-        <v>51</v>
-      </c>
-      <c t="s" r="C14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" r="A15">
-        <v>15</v>
-      </c>
-      <c t="s" r="B15">
-        <v>54</v>
-      </c>
-      <c t="s" r="C15">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" r="A16">
-        <v>15</v>
-      </c>
-      <c t="s" r="B16">
-        <v>119</v>
-      </c>
-      <c t="s" r="C16">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="s" r="A17">
-        <v>15</v>
-      </c>
-      <c t="s" r="B17">
-        <v>120</v>
-      </c>
-      <c t="s" r="C17">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" r="A18">
-        <v>15</v>
-      </c>
-      <c t="s" r="B18">
-        <v>122</v>
-      </c>
-      <c t="s" r="C18">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="s" r="A19">
-        <v>15</v>
-      </c>
-      <c t="s" r="B19">
-        <v>124</v>
-      </c>
-      <c t="s" r="C19">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="11.57" customHeight="1"/>
-  <cols>
-    <col max="2" min="2" customWidth="1" width="13.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
-        <v>125</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>127</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>129</v>
-      </c>
-      <c s="1" r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>130</v>
-      </c>
-      <c t="s" s="1" r="B4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/formidable-client/assets/opendatakit.collect2/form-files/example/example.xlsx
+++ b/formidable-client/assets/opendatakit.collect2/form-files/example/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -127,44 +127,46 @@
     <t>not(selected(data('examples'), 'label_features'))</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Labels&lt;/u&gt; &lt;i&gt;can&lt;/i&gt; contain &lt;span style="color:red;"&gt;HTML&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>So can &lt;b&gt;hints&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Labels can contain &amp;lt;img&amp;gt; and &amp;lt;audio&amp;gt; HTML tags, but it is often easier to add media via the image and audio columns.</t>
+  </si>
+  <si>
+    <t>audio/carrioncrow.mp3</t>
+  </si>
+  <si>
+    <t>img/dolphin.png</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
     <t>Enter your name</t>
   </si>
   <si>
-    <t>Please use your full name</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>{{#if name}}
+    <t>It will be used in the next question.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;
+This label uses Handlesbars template features:
+&lt;/h3&gt;
+{{#if name}}
 Hello {{name}}!
 {{else}}
 Name not entered.
-{{/if}}
-This label is a handlesbars template.</t>
+{{/if}}</t>
   </si>
   <si>
     <t>Handlebars templates allow labels to change depending on the values previously entered.</t>
   </si>
   <si>
-    <t>&lt;u&gt;Labels&lt;/u&gt; &lt;i&gt;can&lt;/i&gt; contain &lt;span style="color:red;"&gt;HTML&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>So can &lt;b&gt;hints&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Labels can contain &amp;lt;img&amp;gt; and &amp;lt;audio&amp;gt; HTML tags, but it is often easier to add media via the image and audio columns.</t>
-  </si>
-  <si>
-    <t>audio/carrioncrow.mp3</t>
-  </si>
-  <si>
-    <t>img/dolphin.png</t>
-  </si>
-  <si>
     <t>label label_features_end</t>
   </si>
   <si>
@@ -204,16 +206,19 @@
     <t>When were you born?</t>
   </si>
   <si>
-    <t>data('born').getDay() === now().getDay() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
+    <t>data('born') &amp;&amp; data('born').getDay() === now().getDay() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
   </si>
   <si>
     <t>Happy Birthday!</t>
   </si>
   <si>
+    <t>This prompt shows how to use dates in fomulas.</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>What time is it?</t>
+    <t>What time do you usually wake up?</t>
   </si>
   <si>
     <t>datetime</t>
@@ -291,6 +296,30 @@
     <t>label media_end</t>
   </si>
   <si>
+    <t>selected(data('examples'), 'prompt_link')</t>
+  </si>
+  <si>
+    <t>&lt;a href="{{promptLink "unreachable"}}"&gt;This is a link to another prompt&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>label prompt_link_return</t>
+  </si>
+  <si>
+    <t>goto unreachable_end</t>
+  </si>
+  <si>
+    <t>unreachable</t>
+  </si>
+  <si>
+    <t>This prompt is unreachable except by links.</t>
+  </si>
+  <si>
+    <t>goto prompt_link_return</t>
+  </si>
+  <si>
+    <t>label unreachable_end</t>
+  </si>
+  <si>
     <t>selected(data('examples'), 'custom_template')</t>
   </si>
   <si>
@@ -397,6 +426,12 @@
   </si>
   <si>
     <t>custom template</t>
+  </si>
+  <si>
+    <t>prompt_link</t>
+  </si>
+  <si>
+    <t>prompt linking</t>
   </si>
   <si>
     <t>setting</t>
@@ -563,7 +598,7 @@
       <c t="s" s="1" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c t="s" s="3" r="D1">
         <v>3</v>
       </c>
       <c t="s" s="1" r="E1">
@@ -709,49 +744,49 @@
       <c t="s" s="1" r="A14">
         <v>37</v>
       </c>
-      <c t="s" s="1" r="C14">
-        <v>2</v>
-      </c>
-      <c t="s" s="1" r="D14">
+      <c t="s" r="D14">
         <v>38</v>
       </c>
-      <c t="s" s="1" r="E14">
+      <c t="s" r="E14">
         <v>39</v>
       </c>
     </row>
     <row r="15">
       <c t="s" s="1" r="A15">
+        <v>37</v>
+      </c>
+      <c t="s" s="3" r="D15">
         <v>40</v>
       </c>
-      <c t="s" s="1" r="D15">
+      <c t="s" s="1" r="G15">
         <v>41</v>
       </c>
-      <c t="s" r="E15">
+      <c t="s" s="1" r="H15">
         <v>42</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="1" r="A16">
-        <v>40</v>
-      </c>
-      <c t="s" r="D16">
         <v>43</v>
       </c>
-      <c t="s" r="E16">
+      <c t="s" s="1" r="C16">
+        <v>2</v>
+      </c>
+      <c t="s" s="3" r="D16">
         <v>44</v>
+      </c>
+      <c t="s" s="1" r="E16">
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="1" r="A17">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" s="3" r="D17">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="G17">
         <v>46</v>
       </c>
-      <c t="s" s="1" r="H17">
+      <c t="s" r="E17">
         <v>47</v>
       </c>
     </row>
@@ -806,46 +841,49 @@
       <c t="s" r="C22">
         <v>59</v>
       </c>
-      <c t="s" s="1" r="D22">
+      <c t="s" s="3" r="D22">
         <v>60</v>
       </c>
     </row>
     <row customHeight="1" r="23" ht="18.0">
       <c t="s" s="1" r="A23">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="B23">
         <v>61</v>
       </c>
-      <c t="s" s="1" r="D23">
+      <c t="s" s="3" r="D23">
         <v>62</v>
+      </c>
+      <c t="s" r="E23">
+        <v>63</v>
       </c>
     </row>
     <row customHeight="1" r="24" ht="18.0">
       <c t="s" s="1" r="A24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="C24">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="D24">
         <v>64</v>
+      </c>
+      <c t="s" s="3" r="D24">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c t="s" s="1" r="A25">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="D25">
         <v>66</v>
+      </c>
+      <c t="s" s="3" r="D25">
+        <v>67</v>
       </c>
     </row>
     <row customHeight="1" r="26" ht="18.0">
       <c t="s" s="4" r="A26">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="C26"/>
     </row>
@@ -854,32 +892,32 @@
         <v>28</v>
       </c>
       <c t="s" r="B27">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="D27">
         <v>70</v>
+      </c>
+      <c t="s" s="3" r="D27">
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c t="s" s="1" r="A28">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="B28">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c t="s" s="1" r="A29">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="D29">
         <v>75</v>
+      </c>
+      <c t="s" s="3" r="D29">
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -887,13 +925,13 @@
         <v>18</v>
       </c>
       <c t="s" s="1" r="B30">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="D30">
         <v>78</v>
+      </c>
+      <c t="s" s="3" r="D30">
+        <v>79</v>
       </c>
       <c t="b" r="M30">
         <v>1</v>
@@ -901,20 +939,20 @@
     </row>
     <row r="31">
       <c t="s" s="1" r="A31">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c t="s" s="5" r="A32">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="B32">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c t="s" s="1" r="A33">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
@@ -922,21 +960,21 @@
         <v>6</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="D34">
         <v>83</v>
+      </c>
+      <c t="s" s="3" r="D34">
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c t="s" s="1" r="A35">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="D35">
         <v>86</v>
+      </c>
+      <c t="s" s="3" r="D35">
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -944,63 +982,109 @@
         <v>7</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="D36">
         <v>88</v>
+      </c>
+      <c t="s" s="3" r="D36">
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c t="s" s="1" r="A37">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c t="s" s="4" r="A38">
-        <v>89</v>
-      </c>
-      <c s="1" r="D38"/>
+        <v>90</v>
+      </c>
+      <c s="3" r="D38"/>
     </row>
     <row r="39">
       <c t="s" s="1" r="A39">
         <v>37</v>
       </c>
       <c t="s" r="B39">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="C39">
         <v>91</v>
       </c>
-      <c t="s" s="1" r="D39">
+      <c t="s" s="3" r="D39">
         <v>92</v>
       </c>
-      <c t="s" s="1" r="I39">
+    </row>
+    <row r="40">
+      <c t="s" s="4" r="A40">
         <v>93</v>
       </c>
-    </row>
-    <row r="40">
-      <c t="s" s="1" r="A40">
+      <c s="3" r="D40"/>
+    </row>
+    <row r="41">
+      <c t="s" s="5" r="A41">
+        <v>94</v>
+      </c>
+      <c s="3" r="D41"/>
+    </row>
+    <row r="42">
+      <c t="s" s="1" r="A42">
+        <v>37</v>
+      </c>
+      <c t="s" r="C42">
+        <v>95</v>
+      </c>
+      <c t="s" s="3" r="D42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="s" s="5" r="A43">
+        <v>97</v>
+      </c>
+      <c s="3" r="D43"/>
+    </row>
+    <row r="44">
+      <c t="s" s="4" r="A44">
+        <v>98</v>
+      </c>
+      <c s="3" r="D44"/>
+    </row>
+    <row r="45">
+      <c t="s" s="1" r="A45">
+        <v>43</v>
+      </c>
+      <c t="s" r="B45">
+        <v>99</v>
+      </c>
+      <c t="s" s="1" r="C45">
+        <v>100</v>
+      </c>
+      <c t="s" s="3" r="D45">
+        <v>101</v>
+      </c>
+      <c t="s" s="1" r="I45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="s" s="1" r="A46">
         <v>49</v>
       </c>
-      <c t="s" s="1" r="C40">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="D40">
-        <v>95</v>
-      </c>
-      <c t="s" r="E40">
-        <v>96</v>
-      </c>
-      <c r="F40">
+      <c t="s" s="1" r="C46">
+        <v>103</v>
+      </c>
+      <c t="s" s="3" r="D46">
+        <v>104</v>
+      </c>
+      <c t="s" r="E46">
+        <v>105</v>
+      </c>
+      <c r="F46">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="J40">
-        <v>97</v>
-      </c>
-      <c s="1" r="K40">
+      <c t="s" s="1" r="J46">
+        <v>106</v>
+      </c>
+      <c s="1" r="K46">
         <v>1</v>
       </c>
-      <c s="1" r="L40">
+      <c s="1" r="L46">
         <v>10</v>
       </c>
     </row>
@@ -1024,15 +1108,15 @@
         <v>2</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1136,7 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c t="s" s="1" r="B1">
         <v>2</v>
@@ -1063,101 +1147,101 @@
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c t="s" s="1" r="B3">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B5">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B6">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B7">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B8">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B9">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c t="s" s="1" r="A10">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="B10">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -1176,10 +1260,10 @@
         <v>14</v>
       </c>
       <c t="s" r="B13">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c t="s" r="C13">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -1187,10 +1271,10 @@
         <v>14</v>
       </c>
       <c t="s" r="B14">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c t="s" r="C14">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1198,10 +1282,10 @@
         <v>14</v>
       </c>
       <c t="s" r="B15">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c t="s" r="C15">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1209,10 +1293,10 @@
         <v>14</v>
       </c>
       <c t="s" r="B16">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="C16">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1231,10 +1315,10 @@
         <v>14</v>
       </c>
       <c t="s" r="B18">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c t="s" r="C18">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -1242,10 +1326,10 @@
         <v>14</v>
       </c>
       <c t="s" r="B19">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c t="s" r="C19">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -1253,10 +1337,21 @@
         <v>14</v>
       </c>
       <c t="s" r="B20">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c t="s" r="C20">
-        <v>125</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="s" r="A21">
+        <v>14</v>
+      </c>
+      <c t="s" r="B21">
+        <v>135</v>
+      </c>
+      <c t="s" r="C21">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1275,23 +1370,23 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c s="1" r="B3">
         <v>1</v>
@@ -1299,10 +1394,10 @@
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c t="s" s="1" r="B4">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
